--- a/result/with_base/123/arousal/s25_5.xlsx
+++ b/result/with_base/123/arousal/s25_5.xlsx
@@ -9,8 +9,6 @@
   <sheets>
     <sheet name="condition" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="result" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="0.0" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="1.0" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>accuracy</t>
   </si>
@@ -84,15 +82,6 @@
   </si>
   <si>
     <t>train_loss</t>
-  </si>
-  <si>
-    <t>fpr</t>
-  </si>
-  <si>
-    <t>roc_auc</t>
-  </si>
-  <si>
-    <t>tpr</t>
   </si>
 </sst>
 </file>
@@ -492,10 +481,10 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.9564732015132904</v>
       </c>
       <c r="B2" t="n">
-        <v>200</v>
+        <v>128</v>
       </c>
       <c r="C2" t="n">
         <v>1024</v>
@@ -510,13 +499,13 @@
         <v>15</v>
       </c>
       <c r="G2" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
         <v>0.5</v>
       </c>
       <c r="I2" t="n">
-        <v>5e-06</v>
+        <v>1e-06</v>
       </c>
       <c r="J2" t="s">
         <v>16</v>
@@ -542,7 +531,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,16 +561,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7725000083446503</v>
+        <v>0.7946428656578064</v>
       </c>
       <c r="C2" t="n">
-        <v>41710.294921875</v>
+        <v>11281.51708984375</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7934090928597883</v>
+        <v>0.8054753156269298</v>
       </c>
       <c r="E2" t="n">
-        <v>41711.5</v>
+        <v>11281.48529411765</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -589,16 +578,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8300000131130219</v>
+        <v>0.8504464328289032</v>
       </c>
       <c r="C3" t="n">
-        <v>40927.0625</v>
+        <v>10972.0791015625</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8647727261890065</v>
+        <v>0.8553702726083643</v>
       </c>
       <c r="E3" t="n">
-        <v>40928.89595170454</v>
+        <v>10971.57284007353</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -606,16 +595,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9525000154972076</v>
+        <v>0.8666294515132904</v>
       </c>
       <c r="C4" t="n">
-        <v>40151.12109375</v>
+        <v>10668.89453125</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9059090993621133</v>
+        <v>0.8777573529411765</v>
       </c>
       <c r="E4" t="n">
-        <v>40152.81534090909</v>
+        <v>10667.87574678309</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -623,16 +612,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.925000011920929</v>
+        <v>0.8962053656578064</v>
       </c>
       <c r="C5" t="n">
-        <v>39388.203125</v>
+        <v>10370.80126953125</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9189772714268077</v>
+        <v>0.906381302020129</v>
       </c>
       <c r="E5" t="n">
-        <v>39389.74467329546</v>
+        <v>10370.29026884191</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -640,16 +629,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9275000095367432</v>
+        <v>0.8828125</v>
       </c>
       <c r="C6" t="n">
-        <v>38635.6484375</v>
+        <v>10081.7451171875</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9294318123297258</v>
+        <v>0.8927914920975181</v>
       </c>
       <c r="E6" t="n">
-        <v>38636.90944602273</v>
+        <v>10080.82008272059</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -657,16 +646,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.949999988079071</v>
+        <v>0.9090401828289032</v>
       </c>
       <c r="C7" t="n">
-        <v>37896.017578125</v>
+        <v>9797.65576171875</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9348863634196195</v>
+        <v>0.910451682174907</v>
       </c>
       <c r="E7" t="n">
-        <v>37896.45205965909</v>
+        <v>9797.257755055147</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -674,16 +663,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9474999904632568</v>
+        <v>0.9246651828289032</v>
       </c>
       <c r="C8" t="n">
-        <v>37167.66015625</v>
+        <v>9520.75244140625</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9398863640698519</v>
+        <v>0.9356617647058824</v>
       </c>
       <c r="E8" t="n">
-        <v>37168.66441761364</v>
+        <v>9520.051011029413</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -691,16 +680,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9574999809265137</v>
+        <v>0.9012276828289032</v>
       </c>
       <c r="C9" t="n">
-        <v>36452.52734375</v>
+        <v>9251.05859375</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9460227218541232</v>
+        <v>0.9313944332739886</v>
       </c>
       <c r="E9" t="n">
-        <v>36452.86860795454</v>
+        <v>9250.56307444853</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -708,16 +697,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.949999988079071</v>
+        <v>0.9296875</v>
       </c>
       <c r="C10" t="n">
-        <v>35749.646484375</v>
+        <v>8987.7587890625</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9510227225043557</v>
+        <v>0.9564075645278481</v>
       </c>
       <c r="E10" t="n">
-        <v>35749.78302556818</v>
+        <v>8987.13809742647</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -725,16 +714,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9300000071525574</v>
+        <v>0.9213169515132904</v>
       </c>
       <c r="C11" t="n">
-        <v>35059.2890625</v>
+        <v>8731.54833984375</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9514772675254128</v>
+        <v>0.9541097704102012</v>
       </c>
       <c r="E11" t="n">
-        <v>35059.36612215909</v>
+        <v>8730.73575367647</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -742,16 +731,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9524999856948853</v>
+        <v>0.9341517984867096</v>
       </c>
       <c r="C12" t="n">
-        <v>34381.01953125</v>
+        <v>8481.45263671875</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9648863673210144</v>
+        <v>0.9423581922755522</v>
       </c>
       <c r="E12" t="n">
-        <v>34380.69744318182</v>
+        <v>8480.788890165441</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -759,16 +748,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9725000262260437</v>
+        <v>0.9252232015132904</v>
       </c>
       <c r="C13" t="n">
-        <v>33714.4609375</v>
+        <v>8237.8486328125</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9709090969779275</v>
+        <v>0.9553571413545048</v>
       </c>
       <c r="E13" t="n">
-        <v>33714.48153409091</v>
+        <v>8237.18359375</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -776,16 +765,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9574999809265137</v>
+        <v>0.9213169515132904</v>
       </c>
       <c r="C14" t="n">
-        <v>33060.779296875</v>
+        <v>8000.510009765625</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9744318236004222</v>
+        <v>0.9580488450386945</v>
       </c>
       <c r="E14" t="n">
-        <v>33060.45134943182</v>
+        <v>7999.87548828125</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -793,16 +782,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.9350000023841858</v>
+        <v>0.9285714328289032</v>
       </c>
       <c r="C15" t="n">
-        <v>32418.7412109375</v>
+        <v>7769.296630859375</v>
       </c>
       <c r="D15" t="n">
-        <v>0.96318180994554</v>
+        <v>0.9682247884133283</v>
       </c>
       <c r="E15" t="n">
-        <v>32418.45205965909</v>
+        <v>7768.714527803309</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -810,16 +799,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.9225000143051147</v>
+        <v>0.9547991156578064</v>
       </c>
       <c r="C16" t="n">
-        <v>31788.953125</v>
+        <v>7544.208251953125</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9535227255387739</v>
+        <v>0.9735425430185655</v>
       </c>
       <c r="E16" t="n">
-        <v>31788.22602982954</v>
+        <v>7543.688534007353</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -827,16 +816,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9625000059604645</v>
+        <v>0.8995535671710968</v>
       </c>
       <c r="C17" t="n">
-        <v>31168.978515625</v>
+        <v>7325.510009765625</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9753409190611406</v>
+        <v>0.9576549354721519</v>
       </c>
       <c r="E17" t="n">
-        <v>31168.771484375</v>
+        <v>7324.69384765625</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -844,16 +833,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.9574999809265137</v>
+        <v>0.9207589328289032</v>
       </c>
       <c r="C18" t="n">
-        <v>30562.2021484375</v>
+        <v>7111.886962890625</v>
       </c>
       <c r="D18" t="n">
-        <v>0.980340919711373</v>
+        <v>0.9679621843730702</v>
       </c>
       <c r="E18" t="n">
-        <v>30561.22052556818</v>
+        <v>7111.282284007353</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -861,16 +850,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.9424999952316284</v>
+        <v>0.9458705484867096</v>
       </c>
       <c r="C19" t="n">
-        <v>29965.7431640625</v>
+        <v>6904.09716796875</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9753409190611406</v>
+        <v>0.9709821413545048</v>
       </c>
       <c r="E19" t="n">
-        <v>29964.94051846591</v>
+        <v>6903.643095128677</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -878,16 +867,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9750000238418579</v>
+        <v>0.9168526828289032</v>
       </c>
       <c r="C20" t="n">
-        <v>29379.9248046875</v>
+        <v>6701.968017578125</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9725000153888356</v>
+        <v>0.9711790961377761</v>
       </c>
       <c r="E20" t="n">
-        <v>29379.58824573864</v>
+        <v>6701.45352711397</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -895,16 +884,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.9725000262260437</v>
+        <v>0.9241071343421936</v>
       </c>
       <c r="C21" t="n">
-        <v>28804.978515625</v>
+        <v>6505.291259765625</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9780681837688793</v>
+        <v>0.9721638665479773</v>
       </c>
       <c r="E21" t="n">
-        <v>28804.73206676136</v>
+        <v>6504.692928538603</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -912,16 +901,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.9625000059604645</v>
+        <v>0.9458705484867096</v>
       </c>
       <c r="C22" t="n">
-        <v>28241.25390625</v>
+        <v>6313.671142578125</v>
       </c>
       <c r="D22" t="n">
-        <v>0.975909103046764</v>
+        <v>0.9802389705882353</v>
       </c>
       <c r="E22" t="n">
-        <v>28240.68270596591</v>
+        <v>6313.190602022059</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -929,16 +918,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.9500000178813934</v>
+        <v>0.9447544515132904</v>
       </c>
       <c r="C23" t="n">
-        <v>27687.7109375</v>
+        <v>6127.293701171875</v>
       </c>
       <c r="D23" t="n">
-        <v>0.975909103046764</v>
+        <v>0.9809611334520227</v>
       </c>
       <c r="E23" t="n">
-        <v>27687.015625</v>
+        <v>6126.846133961397</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -946,16 +935,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.9474999904632568</v>
+        <v>0.9319196343421936</v>
       </c>
       <c r="C24" t="n">
-        <v>27144.576171875</v>
+        <v>5946.086181640625</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9739772785793651</v>
+        <v>0.965270484195036</v>
       </c>
       <c r="E24" t="n">
-        <v>27143.59552556818</v>
+        <v>5945.615981158088</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -963,16 +952,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.9725000262260437</v>
+        <v>0.9118303656578064</v>
       </c>
       <c r="C25" t="n">
-        <v>26610.41796875</v>
+        <v>5769.7119140625</v>
       </c>
       <c r="D25" t="n">
-        <v>0.985909104347229</v>
+        <v>0.9680278371362125</v>
       </c>
       <c r="E25" t="n">
-        <v>26610.13547585227</v>
+        <v>5769.178193933823</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -980,16 +969,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.9625000059604645</v>
+        <v>0.9497767984867096</v>
       </c>
       <c r="C26" t="n">
-        <v>26087.0234375</v>
+        <v>5597.895751953125</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9898863705721769</v>
+        <v>0.9680278371362125</v>
       </c>
       <c r="E26" t="n">
-        <v>26086.712890625</v>
+        <v>5597.554917279412</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -997,16 +986,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.9650000035762787</v>
+        <v>0.94140625</v>
       </c>
       <c r="C27" t="n">
-        <v>25573.3818359375</v>
+        <v>5430.9052734375</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9839772852984342</v>
+        <v>0.9776785724303302</v>
       </c>
       <c r="E27" t="n">
-        <v>25573.08931107954</v>
+        <v>5430.55859375</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1014,16 +1003,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.9725000262260437</v>
+        <v>0.95703125</v>
       </c>
       <c r="C28" t="n">
-        <v>25069.3994140625</v>
+        <v>5268.51611328125</v>
       </c>
       <c r="D28" t="n">
-        <v>0.986704555424777</v>
+        <v>0.9791228981579051</v>
       </c>
       <c r="E28" t="n">
-        <v>25068.88387784091</v>
+        <v>5268.157542509191</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1031,16 +1020,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.9800000190734863</v>
+        <v>0.9324776828289032</v>
       </c>
       <c r="C29" t="n">
-        <v>24574.447265625</v>
+        <v>5110.58740234375</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9871591004458341</v>
+        <v>0.9785976900773889</v>
       </c>
       <c r="E29" t="n">
-        <v>24574.06853693182</v>
+        <v>5110.181324678309</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1048,16 +1037,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.9699999988079071</v>
+        <v>0.9665178656578064</v>
       </c>
       <c r="C30" t="n">
-        <v>24089</v>
+        <v>4956.871337890625</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9869318279353055</v>
+        <v>0.9745273099226111</v>
       </c>
       <c r="E30" t="n">
-        <v>24088.43661221591</v>
+        <v>4956.570456112132</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1065,16 +1054,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.9750000238418579</v>
+        <v>0.9542410671710968</v>
       </c>
       <c r="C31" t="n">
-        <v>23612.1220703125</v>
+        <v>4807.4775390625</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9842045578089628</v>
+        <v>0.9839154411764706</v>
       </c>
       <c r="E31" t="n">
-        <v>23611.87517755682</v>
+        <v>4807.151826746323</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1082,16 +1071,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.9625000059604645</v>
+        <v>0.9458705484867096</v>
       </c>
       <c r="C32" t="n">
-        <v>23144.7294921875</v>
+        <v>4662.24853515625</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9790909181941639</v>
+        <v>0.9801076685681063</v>
       </c>
       <c r="E32" t="n">
-        <v>23144.23277698864</v>
+        <v>4661.852740119485</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1099,16 +1088,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.9725000262260437</v>
+        <v>0.94140625</v>
       </c>
       <c r="C33" t="n">
-        <v>22685.302734375</v>
+        <v>4520.9228515625</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9914772781458768</v>
+        <v>0.9758403371362125</v>
       </c>
       <c r="E33" t="n">
-        <v>22685.10138494318</v>
+        <v>4520.564682904412</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1116,16 +1105,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9497767984867096</v>
       </c>
       <c r="C34" t="n">
-        <v>22235.1015625</v>
+        <v>4383.424072265625</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9897727370262146</v>
+        <v>0.9772846628637875</v>
       </c>
       <c r="E34" t="n">
-        <v>22234.74467329546</v>
+        <v>4383.16592945772</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1133,16 +1122,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0.9750000238418579</v>
+        <v>0.9587053656578064</v>
       </c>
       <c r="C35" t="n">
-        <v>21793.08984375</v>
+        <v>4249.783935546875</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9931818246841431</v>
+        <v>0.9827337194891537</v>
       </c>
       <c r="E35" t="n">
-        <v>21792.78799715909</v>
+        <v>4249.565314797794</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1150,16 +1139,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>0.9699999988079071</v>
+        <v>0.9497767984867096</v>
       </c>
       <c r="C36" t="n">
-        <v>21359.328125</v>
+        <v>4119.97216796875</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9906818270683289</v>
+        <v>0.9831932783126831</v>
       </c>
       <c r="E36" t="n">
-        <v>21359.09712357954</v>
+        <v>4119.699391084559</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1167,16 +1156,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0.9699999988079071</v>
+        <v>0.9241071343421936</v>
       </c>
       <c r="C37" t="n">
-        <v>20933.796875</v>
+        <v>3993.797973632812</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9918181896209717</v>
+        <v>0.9785976900773889</v>
       </c>
       <c r="E37" t="n">
-        <v>20933.548828125</v>
+        <v>3993.464829388787</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1184,16 +1173,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>0.9750000238418579</v>
+        <v>0.9123883843421936</v>
       </c>
       <c r="C38" t="n">
-        <v>20516.1943359375</v>
+        <v>3871.19384765625</v>
       </c>
       <c r="D38" t="n">
-        <v>0.9878409179774198</v>
+        <v>0.9431460079024819</v>
       </c>
       <c r="E38" t="n">
-        <v>20516.013671875</v>
+        <v>3870.886431525735</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1201,16 +1190,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0.9800000190734863</v>
+        <v>0.9157366156578064</v>
       </c>
       <c r="C39" t="n">
-        <v>20106.4833984375</v>
+        <v>3751.982421875</v>
       </c>
       <c r="D39" t="n">
-        <v>0.994772732257843</v>
+        <v>0.9610031527631423</v>
       </c>
       <c r="E39" t="n">
-        <v>20106.21182528409</v>
+        <v>3751.540656594669</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1218,16 +1207,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>0.9775000214576721</v>
+        <v>0.94921875</v>
       </c>
       <c r="C40" t="n">
-        <v>19704.5048828125</v>
+        <v>3635.741943359375</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9922727346420288</v>
+        <v>0.9760372884133283</v>
       </c>
       <c r="E40" t="n">
-        <v>19704.16637073864</v>
+        <v>3635.539952895221</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1235,16 +1224,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.9246651828289032</v>
       </c>
       <c r="C41" t="n">
-        <v>19309.994140625</v>
+        <v>3523.177978515625</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9917045506564054</v>
+        <v>0.9730173314318937</v>
       </c>
       <c r="E41" t="n">
-        <v>19309.63725142046</v>
+        <v>3522.875947840073</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1252,16 +1241,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>0.9650000035762787</v>
+        <v>0.9665178656578064</v>
       </c>
       <c r="C42" t="n">
-        <v>18922.8798828125</v>
+        <v>3413.560668945312</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9701136404817755</v>
+        <v>0.9725577726083643</v>
       </c>
       <c r="E42" t="n">
-        <v>18922.70827414773</v>
+        <v>3413.395838120404</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1269,16 +1258,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>0.9699999988079071</v>
+        <v>0.9626116156578064</v>
       </c>
       <c r="C43" t="n">
-        <v>18543.0419921875</v>
+        <v>3307.117919921875</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9940909147262573</v>
+        <v>0.9776785724303302</v>
       </c>
       <c r="E43" t="n">
-        <v>18542.72265625</v>
+        <v>3306.942842371323</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1286,16 +1275,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>0.9775000214576721</v>
+        <v>0.9581473171710968</v>
       </c>
       <c r="C44" t="n">
-        <v>18170.373046875</v>
+        <v>3203.734619140625</v>
       </c>
       <c r="D44" t="n">
-        <v>0.989545464515686</v>
+        <v>0.9795168077244478</v>
       </c>
       <c r="E44" t="n">
-        <v>18170.09517045454</v>
+        <v>3203.539220473346</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1303,16 +1292,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>0.9699999988079071</v>
+        <v>0.9659598171710968</v>
       </c>
       <c r="C45" t="n">
-        <v>17804.8427734375</v>
+        <v>3103.243286132812</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9870454668998718</v>
+        <v>0.9732799354721519</v>
       </c>
       <c r="E45" t="n">
-        <v>17804.46129261364</v>
+        <v>3103.097713694853</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1320,16 +1309,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>0.9699999988079071</v>
+        <v>0.9536830484867096</v>
       </c>
       <c r="C46" t="n">
-        <v>17446.0283203125</v>
+        <v>3005.640991210938</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9879545569419861</v>
+        <v>0.96875</v>
       </c>
       <c r="E46" t="n">
-        <v>17445.71768465909</v>
+        <v>3005.501263786765</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1337,16 +1326,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9775000214576721</v>
+        <v>0.9665178656578064</v>
       </c>
       <c r="C47" t="n">
-        <v>17093.90234375</v>
+        <v>2910.763549804688</v>
       </c>
       <c r="D47" t="n">
-        <v>0.9948863658038053</v>
+        <v>0.9848345588235294</v>
       </c>
       <c r="E47" t="n">
-        <v>17093.662109375</v>
+        <v>2910.620950137868</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1354,16 +1343,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.9296875</v>
       </c>
       <c r="C48" t="n">
-        <v>16748.38671875</v>
+        <v>2818.74072265625</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9948863658038053</v>
+        <v>0.9700630237074459</v>
       </c>
       <c r="E48" t="n">
-        <v>16748.26100852273</v>
+        <v>2818.538071576287</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1371,16 +1360,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0.9800000190734863</v>
+        <v>0.94921875</v>
       </c>
       <c r="C49" t="n">
-        <v>16409.607421875</v>
+        <v>2729.225830078125</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9948863658038053</v>
+        <v>0.9717043077244478</v>
       </c>
       <c r="E49" t="n">
-        <v>16409.37784090909</v>
+        <v>2729.055865119485</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1388,16 +1377,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>0.9750000238418579</v>
+        <v>0.95703125</v>
       </c>
       <c r="C50" t="n">
-        <v>16077.2392578125</v>
+        <v>2642.29443359375</v>
       </c>
       <c r="D50" t="n">
-        <v>0.994772732257843</v>
+        <v>0.9711790961377761</v>
       </c>
       <c r="E50" t="n">
-        <v>16076.94318181818</v>
+        <v>2642.158231847427</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1405,817 +1394,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>0.9549999833106995</v>
+        <v>0.9564732015132904</v>
       </c>
       <c r="C51" t="n">
-        <v>15750.99365234375</v>
+        <v>2557.885864257812</v>
       </c>
       <c r="D51" t="n">
-        <v>0.986704555424777</v>
+        <v>0.9726234253715066</v>
       </c>
       <c r="E51" t="n">
-        <v>15750.81365411932</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" t="n">
-        <v>51</v>
-      </c>
-      <c r="B52" t="n">
-        <v>0.9775000214576721</v>
-      </c>
-      <c r="C52" t="n">
-        <v>15430.9619140625</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.9944318207827482</v>
-      </c>
-      <c r="E52" t="n">
-        <v>15430.76784446023</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" t="n">
-        <v>52</v>
-      </c>
-      <c r="B53" t="n">
-        <v>0.9775000214576721</v>
-      </c>
-      <c r="C53" t="n">
-        <v>15116.94482421875</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.9957954558459196</v>
-      </c>
-      <c r="E53" t="n">
-        <v>15116.80104758523</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" t="n">
-        <v>53</v>
-      </c>
-      <c r="B54" t="n">
-        <v>0.9725000262260437</v>
-      </c>
-      <c r="C54" t="n">
-        <v>14808.9951171875</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.9889772805300626</v>
-      </c>
-      <c r="E54" t="n">
-        <v>14808.83158735795</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" t="n">
-        <v>54</v>
-      </c>
-      <c r="B55" t="n">
-        <v>0.9800000190734863</v>
-      </c>
-      <c r="C55" t="n">
-        <v>14506.7275390625</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.9870454668998718</v>
-      </c>
-      <c r="E55" t="n">
-        <v>14506.65092329545</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" t="n">
-        <v>55</v>
-      </c>
-      <c r="B56" t="n">
-        <v>0.9800000190734863</v>
-      </c>
-      <c r="C56" t="n">
-        <v>14210.3330078125</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.9946590932932767</v>
-      </c>
-      <c r="E56" t="n">
-        <v>14210.19806463068</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" t="n">
-        <v>56</v>
-      </c>
-      <c r="B57" t="n">
-        <v>0.9775000214576721</v>
-      </c>
-      <c r="C57" t="n">
-        <v>13919.50732421875</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E57" t="n">
-        <v>13919.35955255682</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" t="n">
-        <v>57</v>
-      </c>
-      <c r="B58" t="n">
-        <v>0.9524999856948853</v>
-      </c>
-      <c r="C58" t="n">
-        <v>13634.3701171875</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.9861363768577576</v>
-      </c>
-      <c r="E58" t="n">
-        <v>13634.1181640625</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" t="n">
-        <v>58</v>
-      </c>
-      <c r="B59" t="n">
-        <v>0.9725000262260437</v>
-      </c>
-      <c r="C59" t="n">
-        <v>13354.3671875</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0.9852272868156433</v>
-      </c>
-      <c r="E59" t="n">
-        <v>13354.26837713068</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" t="n">
-        <v>59</v>
-      </c>
-      <c r="B60" t="n">
-        <v>0.9725000262260437</v>
-      </c>
-      <c r="C60" t="n">
-        <v>13079.7822265625</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0.9902272820472717</v>
-      </c>
-      <c r="E60" t="n">
-        <v>13079.71120383523</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" t="n">
-        <v>60</v>
-      </c>
-      <c r="B61" t="n">
-        <v>0.9750000238418579</v>
-      </c>
-      <c r="C61" t="n">
-        <v>12810.48583984375</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0.9938636422157288</v>
-      </c>
-      <c r="E61" t="n">
-        <v>12810.40296519886</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" t="n">
-        <v>61</v>
-      </c>
-      <c r="B62" t="n">
-        <v>0.9775000214576721</v>
-      </c>
-      <c r="C62" t="n">
-        <v>12546.3935546875</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0.993977275761691</v>
-      </c>
-      <c r="E62" t="n">
-        <v>12546.22052556818</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" t="n">
-        <v>62</v>
-      </c>
-      <c r="B63" t="n">
-        <v>0.9750000238418579</v>
-      </c>
-      <c r="C63" t="n">
-        <v>12287.291015625</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0.9925000071525574</v>
-      </c>
-      <c r="E63" t="n">
-        <v>12287.11061789773</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" t="n">
-        <v>63</v>
-      </c>
-      <c r="B64" t="n">
-        <v>0.9800000190734863</v>
-      </c>
-      <c r="C64" t="n">
-        <v>12033.01171875</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0.9953409108248624</v>
-      </c>
-      <c r="E64" t="n">
-        <v>12032.91619318182</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" t="n">
-        <v>64</v>
-      </c>
-      <c r="B65" t="n">
-        <v>0.987500011920929</v>
-      </c>
-      <c r="C65" t="n">
-        <v>11783.7041015625</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0.9861363768577576</v>
-      </c>
-      <c r="E65" t="n">
-        <v>11783.63503196023</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" t="n">
-        <v>65</v>
-      </c>
-      <c r="B66" t="n">
-        <v>0.9800000190734863</v>
-      </c>
-      <c r="C66" t="n">
-        <v>11539.150390625</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0.9959090948104858</v>
-      </c>
-      <c r="E66" t="n">
-        <v>11539.03178267045</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" t="n">
-        <v>66</v>
-      </c>
-      <c r="B67" t="n">
-        <v>0.9699999988079071</v>
-      </c>
-      <c r="C67" t="n">
-        <v>11299.37060546875</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0.996363639831543</v>
-      </c>
-      <c r="E67" t="n">
-        <v>11299.17800071023</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" t="n">
-        <v>67</v>
-      </c>
-      <c r="B68" t="n">
-        <v>0.9750000238418579</v>
-      </c>
-      <c r="C68" t="n">
-        <v>11064.03515625</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0.9943181872367859</v>
-      </c>
-      <c r="E68" t="n">
-        <v>11063.91787997159</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" t="n">
-        <v>68</v>
-      </c>
-      <c r="B69" t="n">
-        <v>0.9650000035762787</v>
-      </c>
-      <c r="C69" t="n">
-        <v>10833.40576171875</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0.993977275761691</v>
-      </c>
-      <c r="E69" t="n">
-        <v>10833.18084161932</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" t="n">
-        <v>69</v>
-      </c>
-      <c r="B70" t="n">
-        <v>0.9725000262260437</v>
-      </c>
-      <c r="C70" t="n">
-        <v>10607.08740234375</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0.9945454597473145</v>
-      </c>
-      <c r="E70" t="n">
-        <v>10606.87002840909</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" t="n">
-        <v>70</v>
-      </c>
-      <c r="B71" t="n">
-        <v>0.9800000190734863</v>
-      </c>
-      <c r="C71" t="n">
-        <v>10385.0478515625</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0.9932954582301053</v>
-      </c>
-      <c r="E71" t="n">
-        <v>10384.8955078125</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" t="n">
-        <v>71</v>
-      </c>
-      <c r="B72" t="n">
-        <v>0.9800000190734863</v>
-      </c>
-      <c r="C72" t="n">
-        <v>10167.294921875</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0.9957954558459196</v>
-      </c>
-      <c r="E72" t="n">
-        <v>10167.20836292614</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" t="n">
-        <v>72</v>
-      </c>
-      <c r="B73" t="n">
-        <v>0.987500011920929</v>
-      </c>
-      <c r="C73" t="n">
-        <v>9953.7880859375</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0.990340915593234</v>
-      </c>
-      <c r="E73" t="n">
-        <v>9953.732066761364</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" t="n">
-        <v>73</v>
-      </c>
-      <c r="B74" t="n">
-        <v>0.9800000190734863</v>
-      </c>
-      <c r="C74" t="n">
-        <v>9744.4365234375</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0.9936363697052002</v>
-      </c>
-      <c r="E74" t="n">
-        <v>9744.363547585228</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" t="n">
-        <v>74</v>
-      </c>
-      <c r="B75" t="n">
-        <v>0.9800000190734863</v>
-      </c>
-      <c r="C75" t="n">
-        <v>9539.162109375</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0.9981818199157715</v>
-      </c>
-      <c r="E75" t="n">
-        <v>9539.043412642046</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" t="n">
-        <v>75</v>
-      </c>
-      <c r="B76" t="n">
-        <v>0.9725000262260437</v>
-      </c>
-      <c r="C76" t="n">
-        <v>9337.859375</v>
-      </c>
-      <c r="D76" t="n">
-        <v>0.9917045506564054</v>
-      </c>
-      <c r="E76" t="n">
-        <v>9337.723277698864</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" t="n">
-        <v>76</v>
-      </c>
-      <c r="B77" t="n">
-        <v>0.9650000035762787</v>
-      </c>
-      <c r="C77" t="n">
-        <v>9140.4111328125</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0.9873863729563627</v>
-      </c>
-      <c r="E77" t="n">
-        <v>9140.296164772728</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" t="n">
-        <v>77</v>
-      </c>
-      <c r="B78" t="n">
-        <v>0.9600000083446503</v>
-      </c>
-      <c r="C78" t="n">
-        <v>8946.87841796875</v>
-      </c>
-      <c r="D78" t="n">
-        <v>0.9869318279353055</v>
-      </c>
-      <c r="E78" t="n">
-        <v>8946.689630681818</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" t="n">
-        <v>78</v>
-      </c>
-      <c r="B79" t="n">
-        <v>0.9725000262260437</v>
-      </c>
-      <c r="C79" t="n">
-        <v>8757.013671875</v>
-      </c>
-      <c r="D79" t="n">
-        <v>0.9904545545578003</v>
-      </c>
-      <c r="E79" t="n">
-        <v>8756.850319602272</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" t="n">
-        <v>79</v>
-      </c>
-      <c r="B80" t="n">
-        <v>0.9800000190734863</v>
-      </c>
-      <c r="C80" t="n">
-        <v>8570.81640625</v>
-      </c>
-      <c r="D80" t="n">
-        <v>0.9954545497894287</v>
-      </c>
-      <c r="E80" t="n">
-        <v>8570.696111505682</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" t="n">
-        <v>80</v>
-      </c>
-      <c r="B81" t="n">
-        <v>0.9675000011920929</v>
-      </c>
-      <c r="C81" t="n">
-        <v>8388.3037109375</v>
-      </c>
-      <c r="D81" t="n">
-        <v>0.9906818270683289</v>
-      </c>
-      <c r="E81" t="n">
-        <v>8388.184925426136</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.9964661109097499</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2741935483870968</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9964661109097499</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.3225806451612903</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.9964661109097499</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.5967741935483871</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>0.005617977528089887</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9964661109097499</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.5967741935483871</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>0.005617977528089887</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.9964661109097499</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.7741935483870968</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="n">
-        <v>0.01123595505617977</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.9964661109097499</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.7741935483870968</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="n">
-        <v>0.01123595505617977</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9964661109097499</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="n">
-        <v>1</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.9964661109097499</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.9964661109097499</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.7247191011235955</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9964661109097499</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.7528089887640449</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.9964661109097499</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.8033707865168539</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9964661109097499</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.848314606741573</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>0</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.9964661109097499</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.8595505617977528</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="n">
-        <v>0</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.9964661109097499</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.8651685393258427</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="n">
-        <v>0</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9964661109097499</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.8764044943820225</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="n">
-        <v>0</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.9964661109097499</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9887640449438202</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="n">
-        <v>0.2258064516129032</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.9964661109097499</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9887640449438202</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="n">
-        <v>0.2258064516129032</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.9964661109097499</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9943820224719101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="n">
-        <v>0.4032258064516129</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.9964661109097499</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9943820224719101</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="n">
-        <v>0.4032258064516129</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.9964661109097499</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.9964661109097499</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
+        <v>2557.752211626838</v>
       </c>
     </row>
   </sheetData>
